--- a/src/main/webapp/report/report.xlsx
+++ b/src/main/webapp/report/report.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1 3 6" r:id="rId3" sheetId="1"/>
+    <sheet name="22 0 0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -24,6 +24,33 @@
   </si>
   <si>
     <t>Total Price</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:34:37.579353</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:35:15.292498</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:35:57.919316</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:36:03.634352</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:36:48.509768</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:38:35.221330</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:40:47.398309</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:19:59.602898</t>
+  </si>
+  <si>
+    <t>2024-02-22T17:33:41.364709</t>
   </si>
 </sst>
 </file>
@@ -68,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +115,132 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>107000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>107000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>107000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>107000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>107000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
